--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Dropbox\Proyecto Desarrollo de Software\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C54FB9-7B3C-4900-8988-9CD2EEF6CBD4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,10 +533,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -866,11 +867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1152,7 +1153,7 @@
         <v>112</v>
       </c>
       <c r="F14" s="11">
-        <v>0.77</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>69</v>
@@ -1176,7 +1177,7 @@
         <v>112</v>
       </c>
       <c r="F15" s="11">
-        <v>0.08</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>69</v>
@@ -1200,7 +1201,7 @@
         <v>112</v>
       </c>
       <c r="F16" s="11">
-        <v>0.17</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>69</v>
@@ -1224,7 +1225,7 @@
         <v>112</v>
       </c>
       <c r="F17" s="11">
-        <v>0.17</v>
+        <v>1.25</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>69</v>
@@ -1643,7 +1644,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>

--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C54FB9-7B3C-4900-8988-9CD2EEF6CBD4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827970E3-B00B-4DC0-852D-A9C7D1EAB040}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t>Columna</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>ALTA</t>
-  </si>
-  <si>
-    <t>ERS</t>
   </si>
   <si>
     <t>EDITAR RENTA</t>
@@ -482,7 +479,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -531,12 +528,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -867,11 +867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -928,19 +928,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="11">
         <v>0.44</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>69</v>
+      <c r="G5" s="20">
+        <v>0.4</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>68</v>
@@ -952,19 +952,19 @@
         <v>24</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="11">
         <v>0.66</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>69</v>
+      <c r="G6" s="20">
+        <v>0.4</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>68</v>
@@ -976,19 +976,19 @@
         <v>26</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="11">
         <v>0.22</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>69</v>
+      <c r="G7" s="20">
+        <v>0.4</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>68</v>
@@ -1000,19 +1000,19 @@
         <v>25</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="11">
         <v>0.37</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>69</v>
+      <c r="G8" s="20">
+        <v>0.4</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>68</v>
@@ -1024,19 +1024,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="11">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>69</v>
+        <v>1.66</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.4</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>68</v>
@@ -1048,19 +1048,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>69</v>
+        <v>1.75</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.4</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>68</v>
@@ -1072,19 +1072,19 @@
         <v>29</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>69</v>
+        <v>0.88</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.4</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>68</v>
@@ -1096,19 +1096,19 @@
         <v>30</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>69</v>
+        <v>1.21</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.4</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>68</v>
@@ -1120,19 +1120,19 @@
         <v>31</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="11">
         <v>0.41</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>69</v>
+      <c r="G13" s="20">
+        <v>0.4</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>68</v>
@@ -1144,19 +1144,19 @@
         <v>32</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>69</v>
+      <c r="G14" s="20">
+        <v>0.4</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>68</v>
@@ -1168,19 +1168,19 @@
         <v>33</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>69</v>
+      <c r="G15" s="20">
+        <v>0.4</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>68</v>
@@ -1192,19 +1192,19 @@
         <v>34</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11">
         <v>0.58599999999999997</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>69</v>
+      <c r="G16" s="20">
+        <v>0.4</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>68</v>
@@ -1216,19 +1216,19 @@
         <v>35</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="11">
         <v>1.25</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>69</v>
+      <c r="G17" s="20">
+        <v>0.4</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>68</v>
@@ -1240,19 +1240,19 @@
         <v>36</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="11">
         <v>0.08</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>69</v>
+      <c r="G18" s="20">
+        <v>0.4</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>68</v>
@@ -1264,18 +1264,20 @@
         <v>37</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="11">
         <v>0.66</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="20">
+        <v>0.4</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="6"/>
     </row>
@@ -1284,19 +1286,19 @@
         <v>38</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="11">
         <v>1.94</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>69</v>
+      <c r="G20" s="20">
+        <v>0.4</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>68</v>
@@ -1308,19 +1310,19 @@
         <v>39</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>69</v>
+      <c r="G21" s="20">
+        <v>0.4</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>68</v>
@@ -1332,19 +1334,19 @@
         <v>40</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>69</v>
+      <c r="G22" s="20">
+        <v>0.4</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>68</v>
@@ -1356,19 +1358,19 @@
         <v>41</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>69</v>
+      <c r="G23" s="20">
+        <v>0.4</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>68</v>
@@ -1380,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>69</v>
+      <c r="G24" s="20">
+        <v>0.4</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>68</v>
@@ -1404,19 +1406,19 @@
         <v>43</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="11">
         <v>0.44</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>69</v>
+      <c r="G25" s="20">
+        <v>0.4</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>68</v>
@@ -1428,19 +1430,19 @@
         <v>44</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="11">
         <v>0.16</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>69</v>
+      <c r="G26" s="20">
+        <v>0.4</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>68</v>
@@ -1452,19 +1454,19 @@
         <v>45</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>69</v>
+      <c r="G27" s="20">
+        <v>0.4</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>68</v>
@@ -1476,19 +1478,19 @@
         <v>46</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="11">
         <v>0.26</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>69</v>
+      <c r="G28" s="20">
+        <v>0.4</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>68</v>
@@ -1500,19 +1502,19 @@
         <v>47</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="11">
         <v>0.66</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>69</v>
+      <c r="G29" s="20">
+        <v>0.4</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>68</v>
@@ -1524,19 +1526,19 @@
         <v>48</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="11">
         <v>0.63</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>69</v>
+      <c r="G30" s="20">
+        <v>0.4</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>68</v>
@@ -1545,22 +1547,22 @@
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="11">
         <v>0.35</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>69</v>
+      <c r="G31" s="20">
+        <v>0.4</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>68</v>
@@ -1569,22 +1571,22 @@
     </row>
     <row r="32" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="11">
         <v>0.53</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>69</v>
+      <c r="G32" s="20">
+        <v>0.4</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>68</v>
@@ -1593,22 +1595,22 @@
     </row>
     <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="11">
         <v>0.27</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>69</v>
+      <c r="G33" s="20">
+        <v>0.4</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>68</v>
@@ -1644,7 +1646,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>

--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827970E3-B00B-4DC0-852D-A9C7D1EAB040}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14C481-F6D2-42CB-A528-8DA9C9E0FDE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>Columna</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>PLANIFICADO</t>
+  </si>
+  <si>
+    <t>Se modificó el diagrama de robustez debido a que faltaban inlcuir fronteras y controles</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1036,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="11">
-        <v>1.66</v>
+        <v>2.66</v>
       </c>
       <c r="G9" s="20">
         <v>0.4</v>
@@ -1041,7 +1044,9 @@
       <c r="H9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -1057,7 +1062,7 @@
         <v>111</v>
       </c>
       <c r="F10" s="11">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="G10" s="20">
         <v>0.4</v>
@@ -1065,9 +1070,11 @@
       <c r="H10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1088,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="11">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="G11" s="20">
         <v>0.4</v>
@@ -1089,7 +1096,9 @@
       <c r="H11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -1105,7 +1114,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="11">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="G12" s="20">
         <v>0.4</v>
@@ -1113,7 +1122,9 @@
       <c r="H12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">

--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14C481-F6D2-42CB-A528-8DA9C9E0FDE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABC274-43A0-45DF-9054-654953398751}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="11">
-        <v>0.08</v>
+        <v>1.66</v>
       </c>
       <c r="G18" s="20">
         <v>0.4</v>
@@ -1284,7 +1284,7 @@
         <v>111</v>
       </c>
       <c r="F19" s="11">
-        <v>0.66</v>
+        <v>1.82</v>
       </c>
       <c r="G19" s="20">
         <v>0.4</v>
@@ -1306,7 +1306,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="11">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="G20" s="20">
         <v>0.4</v>
@@ -1426,7 +1426,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="11">
-        <v>0.44</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G25" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABC274-43A0-45DF-9054-654953398751}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7B5A5-4CD4-42D4-8EED-096E27969A15}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -870,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1164,7 +1164,7 @@
         <v>111</v>
       </c>
       <c r="F14" s="11">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="20">
         <v>0.4</v>
@@ -1188,7 +1188,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="11">
-        <v>0.57999999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="G15" s="20">
         <v>0.4</v>
@@ -1212,7 +1212,7 @@
         <v>111</v>
       </c>
       <c r="F16" s="11">
-        <v>0.58599999999999997</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G16" s="20">
         <v>0.4</v>
@@ -1236,7 +1236,7 @@
         <v>111</v>
       </c>
       <c r="F17" s="11">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="G17" s="20">
         <v>0.4</v>
@@ -1657,7 +1657,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>

--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7B5A5-4CD4-42D4-8EED-096E27969A15}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B59D24-F813-46E3-BADF-7790524B9455}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -870,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="11">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="G18" s="20">
         <v>0.4</v>
@@ -1306,7 +1306,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="11">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="G20" s="20">
         <v>0.4</v>
@@ -1426,7 +1426,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="11">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="G25" s="20">
         <v>0.4</v>
@@ -1657,7 +1657,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>

--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B59D24-F813-46E3-BADF-7790524B9455}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5793E6-2C7E-4DA3-A53B-B9AAF1121DDC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -870,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1164,7 +1164,7 @@
         <v>111</v>
       </c>
       <c r="F14" s="11">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="20">
         <v>0.4</v>
@@ -1188,7 +1188,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="11">
-        <v>0.83</v>
+        <v>1.83</v>
       </c>
       <c r="G15" s="20">
         <v>0.4</v>
@@ -1212,7 +1212,7 @@
         <v>111</v>
       </c>
       <c r="F16" s="11">
-        <v>1.0860000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="G16" s="20">
         <v>0.4</v>
@@ -1236,7 +1236,7 @@
         <v>111</v>
       </c>
       <c r="F17" s="11">
-        <v>1.65</v>
+        <v>3.15</v>
       </c>
       <c r="G17" s="20">
         <v>0.4</v>
@@ -1657,7 +1657,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>

--- a/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 2/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5793E6-2C7E-4DA3-A53B-B9AAF1121DDC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C11052-52C3-4939-A1C1-CBA86BB976D6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -870,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1036,7 +1036,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="11">
-        <v>2.66</v>
+        <v>3.16</v>
       </c>
       <c r="G9" s="20">
         <v>0.4</v>
@@ -1062,7 +1062,7 @@
         <v>111</v>
       </c>
       <c r="F10" s="11">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="G10" s="20">
         <v>0.4</v>
@@ -1114,7 +1114,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="11">
-        <v>1.79</v>
+        <v>2.29</v>
       </c>
       <c r="G12" s="20">
         <v>0.4</v>
@@ -1657,7 +1657,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
